--- a/notebooks/Data/Star_Wars_Episode_VII_The_Force_Awakens/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Episode_VII_The_Force_Awakens/centrality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>betweenness_centrality</t>
   </si>
@@ -28,9 +28,15 @@
     <t>eigenvector_centrality</t>
   </si>
   <si>
+    <t>in_degree</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>out_degree</t>
+  </si>
+  <si>
     <t>Prashee</t>
   </si>
   <si>
@@ -61,166 +67,166 @@
     <t>Hobin Carsamba</t>
   </si>
   <si>
+    <t>Snoke</t>
+  </si>
+  <si>
+    <t>Niv Lek</t>
+  </si>
+  <si>
+    <t>Thadlé Berenko</t>
+  </si>
+  <si>
+    <t>Gwellis Bagnoro</t>
+  </si>
+  <si>
+    <t>Bala-Tik</t>
+  </si>
+  <si>
+    <t>Cypress</t>
+  </si>
+  <si>
+    <t>Crokind Shand</t>
+  </si>
+  <si>
+    <t>Pru Sweevant</t>
+  </si>
+  <si>
+    <t>EGL-21</t>
+  </si>
+  <si>
+    <t>HURID-327</t>
+  </si>
+  <si>
+    <t>Phasma</t>
+  </si>
+  <si>
+    <t>PZ-4CO</t>
+  </si>
+  <si>
+    <t>FN-2199</t>
+  </si>
+  <si>
+    <t>Tasu Leech</t>
+  </si>
+  <si>
+    <t>Kaplan (colonel)</t>
+  </si>
+  <si>
+    <t>Vober Dand</t>
+  </si>
+  <si>
+    <t>FN-9330</t>
+  </si>
+  <si>
+    <t>Blass Tyran</t>
+  </si>
+  <si>
+    <t>Divis Scaldz</t>
+  </si>
+  <si>
+    <t>ME-8D9</t>
+  </si>
+  <si>
+    <t>Durteel Haza</t>
+  </si>
+  <si>
+    <t>Unidentified male bar patron 5</t>
+  </si>
+  <si>
+    <t>Anakin Skywalker</t>
+  </si>
+  <si>
+    <t>Zygli Bruss</t>
+  </si>
+  <si>
+    <t>Sonsigo</t>
+  </si>
+  <si>
+    <t>Anophe Dengue</t>
+  </si>
+  <si>
+    <t>Jashco Phurus</t>
+  </si>
+  <si>
+    <t>Finn</t>
+  </si>
+  <si>
+    <t>Gadde Neshurrion</t>
+  </si>
+  <si>
+    <t>Obi-Wan Kenobi</t>
+  </si>
+  <si>
+    <t>Jessika Pava</t>
+  </si>
+  <si>
+    <t>Allium</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>R2-D2</t>
+  </si>
+  <si>
+    <t>Rey</t>
+  </si>
+  <si>
+    <t>Armitage Hux</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>Guich</t>
+  </si>
+  <si>
+    <t>Bobbajo</t>
+  </si>
+  <si>
+    <t>J'Rrosch</t>
+  </si>
+  <si>
+    <t>Sarco Plank</t>
+  </si>
+  <si>
+    <t>Wollivan</t>
+  </si>
+  <si>
+    <t>Laparo</t>
+  </si>
+  <si>
+    <t>Infrablue Zedbeddy Coggins</t>
+  </si>
+  <si>
+    <t>R2-KT</t>
+  </si>
+  <si>
+    <t>Pamich Nerro Goode</t>
+  </si>
+  <si>
+    <t>O-MR1</t>
+  </si>
+  <si>
+    <t>C-3PO</t>
+  </si>
+  <si>
+    <t>Jabba Desilijic Tiure</t>
+  </si>
+  <si>
+    <t>Sache Skareet</t>
+  </si>
+  <si>
+    <t>Gannis Ducain</t>
+  </si>
+  <si>
+    <t>Chewbacca</t>
+  </si>
+  <si>
+    <t>Volzang Li-Thrull</t>
+  </si>
+  <si>
     <t>C'ai Threnalli</t>
-  </si>
-  <si>
-    <t>Niv Lek</t>
-  </si>
-  <si>
-    <t>Thadlé Berenko</t>
-  </si>
-  <si>
-    <t>Gwellis Bagnoro</t>
-  </si>
-  <si>
-    <t>Bala-Tik</t>
-  </si>
-  <si>
-    <t>Cypress</t>
-  </si>
-  <si>
-    <t>Crokind Shand</t>
-  </si>
-  <si>
-    <t>Pru Sweevant</t>
-  </si>
-  <si>
-    <t>EGL-21</t>
-  </si>
-  <si>
-    <t>HURID-327</t>
-  </si>
-  <si>
-    <t>Phasma</t>
-  </si>
-  <si>
-    <t>PZ-4CO</t>
-  </si>
-  <si>
-    <t>FN-2199</t>
-  </si>
-  <si>
-    <t>Tasu Leech</t>
-  </si>
-  <si>
-    <t>Kaplan (colonel)</t>
-  </si>
-  <si>
-    <t>Vober Dand</t>
-  </si>
-  <si>
-    <t>FN-9330</t>
-  </si>
-  <si>
-    <t>Blass Tyran</t>
-  </si>
-  <si>
-    <t>Divis Scaldz</t>
-  </si>
-  <si>
-    <t>ME-8D9</t>
-  </si>
-  <si>
-    <t>Durteel Haza</t>
-  </si>
-  <si>
-    <t>Unidentified male bar patron 5</t>
-  </si>
-  <si>
-    <t>Anakin Skywalker</t>
-  </si>
-  <si>
-    <t>Zygli Bruss</t>
-  </si>
-  <si>
-    <t>Sonsigo</t>
-  </si>
-  <si>
-    <t>Anophe Dengue</t>
-  </si>
-  <si>
-    <t>Jashco Phurus</t>
-  </si>
-  <si>
-    <t>Finn</t>
-  </si>
-  <si>
-    <t>Gadde Neshurrion</t>
-  </si>
-  <si>
-    <t>Obi-Wan Kenobi</t>
-  </si>
-  <si>
-    <t>Jessika Pava</t>
-  </si>
-  <si>
-    <t>Allium</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>R2-D2</t>
-  </si>
-  <si>
-    <t>Rey</t>
-  </si>
-  <si>
-    <t>Armitage Hux</t>
-  </si>
-  <si>
-    <t>Wright</t>
-  </si>
-  <si>
-    <t>Guich</t>
-  </si>
-  <si>
-    <t>Bobbajo</t>
-  </si>
-  <si>
-    <t>J'Rrosch</t>
-  </si>
-  <si>
-    <t>Sarco Plank</t>
-  </si>
-  <si>
-    <t>Wollivan</t>
-  </si>
-  <si>
-    <t>Laparo</t>
-  </si>
-  <si>
-    <t>Infrablue Zedbeddy Coggins</t>
-  </si>
-  <si>
-    <t>R2-KT</t>
-  </si>
-  <si>
-    <t>Pamich Nerro Goode</t>
-  </si>
-  <si>
-    <t>O-MR1</t>
-  </si>
-  <si>
-    <t>C-3PO</t>
-  </si>
-  <si>
-    <t>Jabba Desilijic Tiure</t>
-  </si>
-  <si>
-    <t>Sache Skareet</t>
-  </si>
-  <si>
-    <t>Gannis Ducain</t>
-  </si>
-  <si>
-    <t>Chewbacca</t>
-  </si>
-  <si>
-    <t>Volzang Li-Thrull</t>
-  </si>
-  <si>
-    <t>Snoke</t>
   </si>
   <si>
     <t>Resdox</t>
@@ -902,13 +908,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,8 +930,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -939,18 +951,24 @@
         <v>0.04093567251461988</v>
       </c>
       <c r="E2">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0003417039330352024</v>
+        <v>0.0003420861521996712</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -959,13 +977,19 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="E3">
-        <v>0.01216171797565198</v>
-      </c>
-      <c r="F3" t="s">
+        <v>0.01220779063992703</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -979,13 +1003,19 @@
         <v>0.02923976608187134</v>
       </c>
       <c r="E4">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -999,18 +1029,24 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03937865591360363</v>
+        <v>0.03941170115726157</v>
       </c>
       <c r="C6">
         <v>64</v>
@@ -1019,13 +1055,19 @@
         <v>0.3742690058479532</v>
       </c>
       <c r="E6">
-        <v>0.2756456478713412</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.2767631222958686</v>
+      </c>
+      <c r="F6">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1039,13 +1081,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1059,13 +1107,19 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="E8">
-        <v>0.05320542092549317</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.05356117416110788</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1079,18 +1133,24 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E9">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.004537748845799664</v>
+        <v>0.004538704393710837</v>
       </c>
       <c r="C10">
         <v>24</v>
@@ -1099,13 +1159,19 @@
         <v>0.1403508771929824</v>
       </c>
       <c r="E10">
-        <v>0.1301520904260783</v>
-      </c>
-      <c r="F10" t="s">
+        <v>0.131088619499611</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1119,33 +1185,45 @@
         <v>0.02923976608187134</v>
       </c>
       <c r="E11">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.005467806855835752</v>
+        <v>0.009601457302008516</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>0.05847953216374269</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="E12">
-        <v>0.001505165552757686</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.1828570965250647</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1159,13 +1237,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E13">
-        <v>4.633014403564659e-14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>4.771087790232163e-14</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1179,13 +1263,19 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1199,18 +1289,24 @@
         <v>0.04093567251461988</v>
       </c>
       <c r="E15">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01072730687355914</v>
+        <v>0.01072894495569258</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -1219,13 +1315,19 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="E16">
-        <v>0.05423591584748468</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.05358732568177203</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1239,13 +1341,19 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E17">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1259,13 +1367,19 @@
         <v>0.02923976608187134</v>
       </c>
       <c r="E18">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1279,13 +1393,19 @@
         <v>0.04093567251461988</v>
       </c>
       <c r="E19">
-        <v>0.0008453373055169309</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.0008514546592126684</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1299,13 +1419,19 @@
         <v>0.03508771929824561</v>
       </c>
       <c r="E20">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1319,18 +1445,24 @@
         <v>0.02923976608187134</v>
       </c>
       <c r="E21">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.002847648812757385</v>
+        <v>0.00284941290120878</v>
       </c>
       <c r="C22">
         <v>26</v>
@@ -1339,13 +1471,19 @@
         <v>0.152046783625731</v>
       </c>
       <c r="E22">
-        <v>0.09328093075895939</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.09390077528509053</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1359,13 +1497,19 @@
         <v>0.02923976608187134</v>
       </c>
       <c r="E23">
-        <v>0.01772856045423136</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.01785623374954004</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1379,13 +1523,19 @@
         <v>0.07017543859649122</v>
       </c>
       <c r="E24">
-        <v>0.0188631940392903</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.01897578258278302</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1399,13 +1549,19 @@
         <v>0.03508771929824561</v>
       </c>
       <c r="E25">
-        <v>0.003503179656011859</v>
-      </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.003472271974017094</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1419,13 +1575,19 @@
         <v>0.04678362573099415</v>
       </c>
       <c r="E26">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1439,13 +1601,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E27">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1459,13 +1627,19 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E28">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1479,13 +1653,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E29">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1499,13 +1679,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1519,13 +1705,19 @@
         <v>0.02339181286549707</v>
       </c>
       <c r="E31">
-        <v>0.01060187973722619</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01063695856270608</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1539,13 +1731,19 @@
         <v>0.03508771929824561</v>
       </c>
       <c r="E32">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1559,33 +1757,45 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E33">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.002969155223980711</v>
+        <v>0.00281786313003399</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>0.2046783625730994</v>
+        <v>0.1988304093567251</v>
       </c>
       <c r="E34">
-        <v>0.229407748747292</v>
-      </c>
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.2309225467352948</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1599,13 +1809,19 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1619,13 +1835,19 @@
         <v>0.04678362573099415</v>
       </c>
       <c r="E36">
-        <v>1.58101616521644e-11</v>
-      </c>
-      <c r="F36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>1.628133708416726e-11</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1639,13 +1861,19 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1659,18 +1887,24 @@
         <v>0.02339181286549707</v>
       </c>
       <c r="E38">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.04460562047995964</v>
+        <v>0.04465657639630491</v>
       </c>
       <c r="C39">
         <v>80</v>
@@ -1679,13 +1913,19 @@
         <v>0.4678362573099415</v>
       </c>
       <c r="E39">
-        <v>0.1999883799290641</v>
-      </c>
-      <c r="F39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.200195900454653</v>
+      </c>
+      <c r="F39">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1699,18 +1939,24 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0003337435432854917</v>
+        <v>0.0003532272686923066</v>
       </c>
       <c r="C41">
         <v>23</v>
@@ -1719,13 +1965,19 @@
         <v>0.1345029239766082</v>
       </c>
       <c r="E41">
-        <v>0.1802432226452029</v>
-      </c>
-      <c r="F41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.1806744034091417</v>
+      </c>
+      <c r="F41">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1739,13 +1991,19 @@
         <v>0.08187134502923976</v>
       </c>
       <c r="E42">
-        <v>0.0696928659984626</v>
-      </c>
-      <c r="F42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.07015049583436622</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1759,18 +2017,24 @@
         <v>0.04678362573099415</v>
       </c>
       <c r="E43">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.02959247272404383</v>
+        <v>0.02963217005123724</v>
       </c>
       <c r="C44">
         <v>84</v>
@@ -1779,18 +2043,24 @@
         <v>0.4912280701754386</v>
       </c>
       <c r="E44">
-        <v>0.2871545992238823</v>
-      </c>
-      <c r="F44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.288188952475721</v>
+      </c>
+      <c r="F44">
+        <v>62</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.001645880425172714</v>
+        <v>0.00166762532440933</v>
       </c>
       <c r="C45">
         <v>32</v>
@@ -1799,33 +2069,45 @@
         <v>0.1871345029239766</v>
       </c>
       <c r="E45">
-        <v>0.19105775158008</v>
-      </c>
-      <c r="F45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>0.1915273942078492</v>
+      </c>
+      <c r="F45">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.05510482203338665</v>
+        <v>0.05492051746612217</v>
       </c>
       <c r="C46">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46">
-        <v>0.5146198830409356</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="E46">
-        <v>0.2633799639770039</v>
-      </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.2500842637537562</v>
+      </c>
+      <c r="F46">
+        <v>65</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1839,13 +2121,19 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="E47">
-        <v>0.0890610174935377</v>
-      </c>
-      <c r="F47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.08964611960239362</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1859,13 +2147,19 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E48">
-        <v>9.680594086796173e-05</v>
-      </c>
-      <c r="F48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>9.815894591858659e-05</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1879,13 +2173,19 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E49">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1899,13 +2199,19 @@
         <v>0.04093567251461988</v>
       </c>
       <c r="E50">
-        <v>0.01769526843147751</v>
-      </c>
-      <c r="F50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.0168921616712954</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1919,18 +2225,24 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E51">
-        <v>0.001138155412589302</v>
-      </c>
-      <c r="F51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.001089923322089223</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0001379302385494336</v>
+        <v>0.0001415145455393134</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -1939,13 +2251,19 @@
         <v>0.04093567251461988</v>
       </c>
       <c r="E52">
-        <v>0.01863732407759823</v>
-      </c>
-      <c r="F52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>0.01876218109482117</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1959,13 +2277,19 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E53">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1979,18 +2303,24 @@
         <v>0.04093567251461988</v>
       </c>
       <c r="E54">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.005226178190574478</v>
+        <v>0.005227741814429122</v>
       </c>
       <c r="C55">
         <v>11</v>
@@ -1999,13 +2329,19 @@
         <v>0.06432748538011696</v>
       </c>
       <c r="E55">
-        <v>0.01313789165363799</v>
-      </c>
-      <c r="F55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01319132254020095</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2019,13 +2355,19 @@
         <v>0.06432748538011696</v>
       </c>
       <c r="E56">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2039,13 +2381,19 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E57">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2059,18 +2407,24 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E58">
-        <v>0.02039009486891932</v>
-      </c>
-      <c r="F58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.02059542156424842</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.01210103075390234</v>
+        <v>0.01216650957177737</v>
       </c>
       <c r="C59">
         <v>40</v>
@@ -2079,13 +2433,19 @@
         <v>0.2339181286549707</v>
       </c>
       <c r="E59">
-        <v>0.186875378136312</v>
-      </c>
-      <c r="F59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.1881306333423534</v>
+      </c>
+      <c r="F59">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2099,13 +2459,19 @@
         <v>0.1286549707602339</v>
       </c>
       <c r="E60">
-        <v>0.1583005895365785</v>
-      </c>
-      <c r="F60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1594173709640911</v>
+      </c>
+      <c r="F60">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2119,13 +2485,19 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2139,18 +2511,24 @@
         <v>0.03508771929824561</v>
       </c>
       <c r="E62">
-        <v>0.05241689037666507</v>
-      </c>
-      <c r="F62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.05184033198687629</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.01047168499708795</v>
+        <v>0.01051123171472748</v>
       </c>
       <c r="C63">
         <v>54</v>
@@ -2159,13 +2537,19 @@
         <v>0.3157894736842105</v>
       </c>
       <c r="E63">
-        <v>0.2644343767756747</v>
-      </c>
-      <c r="F63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.2652105921135454</v>
+      </c>
+      <c r="F63">
+        <v>32</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2179,33 +2563,45 @@
         <v>0.02923976608187134</v>
       </c>
       <c r="E64">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.009578302400112645</v>
+        <v>0.005467806855835752</v>
       </c>
       <c r="C65">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>0.1754385964912281</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="E65">
-        <v>0.1824347349361122</v>
-      </c>
-      <c r="F65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.001521442981163848</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2219,13 +2615,19 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2239,13 +2641,19 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E67">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2259,13 +2667,19 @@
         <v>0.02923976608187134</v>
       </c>
       <c r="E68">
-        <v>0.01772856045329704</v>
-      </c>
-      <c r="F68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01785623374857788</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2279,13 +2693,19 @@
         <v>0.04093567251461988</v>
       </c>
       <c r="E69">
-        <v>0.03160152587959499</v>
-      </c>
-      <c r="F69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03087023766900352</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2299,13 +2719,19 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E70">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2319,13 +2745,19 @@
         <v>0.02339181286549707</v>
       </c>
       <c r="E71">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2339,13 +2771,19 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="E72">
-        <v>0.01865055024930161</v>
-      </c>
-      <c r="F72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.01786454075426515</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2359,13 +2797,19 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2379,13 +2823,19 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E74">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2399,13 +2849,19 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E75">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2419,13 +2875,19 @@
         <v>0.02923976608187134</v>
       </c>
       <c r="E76">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>81</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2439,13 +2901,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E77">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2459,13 +2927,19 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>83</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2479,18 +2953,24 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E79">
-        <v>0.01701565868260755</v>
-      </c>
-      <c r="F79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.01712996727610693</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0006772923594389023</v>
+        <v>0.0006825846247930871</v>
       </c>
       <c r="C80">
         <v>9</v>
@@ -2499,13 +2979,19 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="E80">
-        <v>0.01060187973726866</v>
-      </c>
-      <c r="F80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.01063695856274981</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2519,13 +3005,19 @@
         <v>0.04678362573099415</v>
       </c>
       <c r="E81">
-        <v>0.03123960959322104</v>
-      </c>
-      <c r="F81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.03144567915897845</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81" t="s">
+        <v>86</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2539,13 +3031,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E82">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F82" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>87</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2559,13 +3057,19 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2579,13 +3083,19 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2599,13 +3109,19 @@
         <v>0.08771929824561403</v>
       </c>
       <c r="E85">
-        <v>0.08568560054280844</v>
-      </c>
-      <c r="F85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.08631199911313825</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2619,13 +3135,19 @@
         <v>0.03508771929824561</v>
       </c>
       <c r="E86">
-        <v>0.03330654627856976</v>
-      </c>
-      <c r="F86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03252477272121872</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2639,18 +3161,24 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E87">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>92</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.08161080241705079</v>
+        <v>0.08173410555995322</v>
       </c>
       <c r="C88">
         <v>77</v>
@@ -2659,18 +3187,24 @@
         <v>0.4502923976608187</v>
       </c>
       <c r="E88">
-        <v>0.1648252020777964</v>
-      </c>
-      <c r="F88" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.1648527817699394</v>
+      </c>
+      <c r="F88">
+        <v>52</v>
+      </c>
+      <c r="G88" t="s">
+        <v>93</v>
+      </c>
+      <c r="H88">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.002589364525452454</v>
+        <v>0.002613653793045925</v>
       </c>
       <c r="C89">
         <v>22</v>
@@ -2679,13 +3213,19 @@
         <v>0.1286549707602339</v>
       </c>
       <c r="E89">
-        <v>0.1707890867994772</v>
-      </c>
-      <c r="F89" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1711175559414594</v>
+      </c>
+      <c r="F89">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>94</v>
+      </c>
+      <c r="H89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2699,13 +3239,19 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>95</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2719,13 +3265,19 @@
         <v>0.04093567251461988</v>
       </c>
       <c r="E91">
-        <v>0.02987129648647866</v>
-      </c>
-      <c r="F91" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.03011944286884903</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91" t="s">
+        <v>96</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2739,13 +3291,19 @@
         <v>0.04093567251461988</v>
       </c>
       <c r="E92">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F92" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2759,13 +3317,19 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E93">
-        <v>8.879944273498931e-14</v>
-      </c>
-      <c r="F93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>9.144584931278313e-14</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="s">
+        <v>98</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2779,13 +3343,19 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="E94">
-        <v>0.01313789165363799</v>
-      </c>
-      <c r="F94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.01319132254020095</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
+        <v>99</v>
+      </c>
+      <c r="H94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2799,13 +3369,19 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="E95">
-        <v>8.549417304257959e-10</v>
-      </c>
-      <c r="F95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>8.804207576510168e-10</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95" t="s">
+        <v>100</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2819,13 +3395,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E96">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>101</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2839,13 +3421,19 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="E97">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>102</v>
+      </c>
+      <c r="H97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2859,13 +3447,19 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E98">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>103</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2879,13 +3473,19 @@
         <v>0.02339181286549707</v>
       </c>
       <c r="E99">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>104</v>
+      </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2899,13 +3499,19 @@
         <v>0.06432748538011696</v>
       </c>
       <c r="E100">
-        <v>0.04235210400319613</v>
-      </c>
-      <c r="F100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>0.04159018029382815</v>
+      </c>
+      <c r="F100">
+        <v>7</v>
+      </c>
+      <c r="G100" t="s">
+        <v>105</v>
+      </c>
+      <c r="H100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2919,13 +3525,19 @@
         <v>0.07602339181286549</v>
       </c>
       <c r="E101">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F101" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>106</v>
+      </c>
+      <c r="H101">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2939,18 +3551,24 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E102">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>107</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0326302669852751</v>
+        <v>0.03263677470149932</v>
       </c>
       <c r="C103">
         <v>62</v>
@@ -2959,13 +3577,19 @@
         <v>0.3625730994152047</v>
       </c>
       <c r="E103">
-        <v>0.2085581480139205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.2091000173574742</v>
+      </c>
+      <c r="F103">
+        <v>42</v>
+      </c>
+      <c r="G103" t="s">
+        <v>108</v>
+      </c>
+      <c r="H103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2979,13 +3603,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E104">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F104" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>109</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2999,13 +3629,19 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E105">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>110</v>
+      </c>
+      <c r="H105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3019,18 +3655,24 @@
         <v>0.03508771929824561</v>
       </c>
       <c r="E106">
-        <v>0.020076587209583</v>
-      </c>
-      <c r="F106" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>0.02020025365003612</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>111</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.007414978126693028</v>
+        <v>0.00741542489520406</v>
       </c>
       <c r="C107">
         <v>22</v>
@@ -3039,13 +3681,19 @@
         <v>0.1286549707602339</v>
       </c>
       <c r="E107">
-        <v>0.09478817572156133</v>
-      </c>
-      <c r="F107" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>0.09543461732189433</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>112</v>
+      </c>
+      <c r="H107">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3059,13 +3707,19 @@
         <v>0.04678362573099415</v>
       </c>
       <c r="E108">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F108" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>113</v>
+      </c>
+      <c r="H108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3079,13 +3733,19 @@
         <v>0.02339181286549707</v>
       </c>
       <c r="E109">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F109" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>114</v>
+      </c>
+      <c r="H109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3099,13 +3759,19 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E110">
-        <v>0.01694002990446893</v>
-      </c>
-      <c r="F110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>0.01613539157434627</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>115</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3119,13 +3785,19 @@
         <v>0.02339181286549707</v>
       </c>
       <c r="E111">
-        <v>8.548992611270965e-10</v>
-      </c>
-      <c r="F111" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>8.803770226796063e-10</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111" t="s">
+        <v>116</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3139,13 +3811,19 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E112">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F112" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>117</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3159,13 +3837,19 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="E113">
-        <v>0.01313789165363799</v>
-      </c>
-      <c r="F113" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>0.01319132254020095</v>
+      </c>
+      <c r="F113">
+        <v>4</v>
+      </c>
+      <c r="G113" t="s">
+        <v>118</v>
+      </c>
+      <c r="H113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3179,13 +3863,19 @@
         <v>0.02923976608187134</v>
       </c>
       <c r="E114">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F114" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>119</v>
+      </c>
+      <c r="H114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3199,13 +3889,19 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E115">
-        <v>1.58063008068281e-11</v>
-      </c>
-      <c r="F115" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>1.62773611776754e-11</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>120</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3219,13 +3915,19 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F116" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>121</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3239,13 +3941,19 @@
         <v>0.06432748538011696</v>
       </c>
       <c r="E117">
-        <v>0.02330544989524032</v>
-      </c>
-      <c r="F117" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>0.02348327988645641</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>122</v>
+      </c>
+      <c r="H117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3259,13 +3967,19 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="E118">
-        <v>0.01708633605169373</v>
-      </c>
-      <c r="F118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>0.01720156770691799</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118" t="s">
+        <v>123</v>
+      </c>
+      <c r="H118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3279,13 +3993,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E119">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F119" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>124</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3299,13 +4019,19 @@
         <v>0.05847953216374269</v>
       </c>
       <c r="E120">
-        <v>0.08639718278924848</v>
-      </c>
-      <c r="F120" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>0.08696664414330522</v>
+      </c>
+      <c r="F120">
+        <v>6</v>
+      </c>
+      <c r="G120" t="s">
+        <v>125</v>
+      </c>
+      <c r="H120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3319,13 +4045,19 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="E121">
-        <v>0.01313789165363799</v>
-      </c>
-      <c r="F121" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>0.01319132254020095</v>
+      </c>
+      <c r="F121">
+        <v>4</v>
+      </c>
+      <c r="G121" t="s">
+        <v>126</v>
+      </c>
+      <c r="H121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3339,13 +4071,19 @@
         <v>0.03508771929824561</v>
       </c>
       <c r="E122">
-        <v>4.633014403564659e-14</v>
-      </c>
-      <c r="F122" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>4.771087790232163e-14</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>127</v>
+      </c>
+      <c r="H122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3359,13 +4097,19 @@
         <v>0.04093567251461988</v>
       </c>
       <c r="E123">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>128</v>
+      </c>
+      <c r="H123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3379,13 +4123,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E124">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>129</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3399,13 +4149,19 @@
         <v>0.04678362573099415</v>
       </c>
       <c r="E125">
-        <v>0.01364574675998314</v>
-      </c>
-      <c r="F125" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>0.0137049577674216</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125" t="s">
+        <v>130</v>
+      </c>
+      <c r="H125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3419,13 +4175,19 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F126" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>131</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3439,13 +4201,19 @@
         <v>0.02339181286549707</v>
       </c>
       <c r="E127">
-        <v>2.586766375323602e-13</v>
-      </c>
-      <c r="F127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>2.66385734954629e-13</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>132</v>
+      </c>
+      <c r="H127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3459,13 +4227,19 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E128">
-        <v>0.001098936220692894</v>
-      </c>
-      <c r="F128" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>0.001109815044208671</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>133</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3479,13 +4253,19 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E129">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F129" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>134</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3499,13 +4279,19 @@
         <v>0.03508771929824561</v>
       </c>
       <c r="E130">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>135</v>
+      </c>
+      <c r="H130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3519,13 +4305,19 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E131">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F131" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>136</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3539,13 +4331,19 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F132" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>137</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3559,13 +4357,19 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E133">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F133" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>138</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3579,13 +4383,19 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E134">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>139</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3599,13 +4409,19 @@
         <v>0.03508771929824561</v>
       </c>
       <c r="E135">
-        <v>0.00795786321806769</v>
-      </c>
-      <c r="F135" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>0.008038653462341434</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135" t="s">
+        <v>140</v>
+      </c>
+      <c r="H135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3619,13 +4435,19 @@
         <v>0.04678362573099415</v>
       </c>
       <c r="E136">
-        <v>1.58101616521644e-11</v>
-      </c>
-      <c r="F136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>1.628133708416726e-11</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136" t="s">
+        <v>141</v>
+      </c>
+      <c r="H136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3639,13 +4461,19 @@
         <v>0.02339181286549707</v>
       </c>
       <c r="E137">
-        <v>8.548992611270965e-10</v>
-      </c>
-      <c r="F137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>8.803770226796063e-10</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137" t="s">
+        <v>142</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3659,13 +4487,19 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E138">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F138" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>143</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3679,13 +4513,19 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E139">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139" t="s">
+        <v>144</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3699,18 +4539,24 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E140">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F140" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>145</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.02967980514680604</v>
+        <v>0.02970278386693043</v>
       </c>
       <c r="C141">
         <v>77</v>
@@ -3719,13 +4565,19 @@
         <v>0.4502923976608187</v>
       </c>
       <c r="E141">
-        <v>0.2148047824253721</v>
-      </c>
-      <c r="F141" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>0.2151747926522049</v>
+      </c>
+      <c r="F141">
+        <v>59</v>
+      </c>
+      <c r="G141" t="s">
+        <v>146</v>
+      </c>
+      <c r="H141">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3739,13 +4591,19 @@
         <v>0.1695906432748538</v>
       </c>
       <c r="E142">
-        <v>0.1237254754087175</v>
-      </c>
-      <c r="F142" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>0.1245908747739704</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>147</v>
+      </c>
+      <c r="H142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3759,13 +4617,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E143">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F143" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
+        <v>148</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3779,13 +4643,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E144">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F144" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>149</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3799,18 +4669,24 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E145">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F145" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145" t="s">
+        <v>150</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.02321668268322179</v>
+        <v>0.02325331223386962</v>
       </c>
       <c r="C146">
         <v>62</v>
@@ -3819,13 +4695,19 @@
         <v>0.3625730994152047</v>
       </c>
       <c r="E146">
-        <v>0.2897734275810709</v>
-      </c>
-      <c r="F146" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>0.290802889533229</v>
+      </c>
+      <c r="F146">
+        <v>40</v>
+      </c>
+      <c r="G146" t="s">
+        <v>151</v>
+      </c>
+      <c r="H146">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3839,13 +4721,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E147">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F147" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>152</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3859,13 +4747,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E148">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F148" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>153</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3879,13 +4773,19 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E149">
-        <v>0.00149893985777981</v>
-      </c>
-      <c r="F149" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>0.001515110629084677</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>154</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3899,18 +4799,24 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E150">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F150" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>155</v>
+      </c>
+      <c r="H150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.03963099733316055</v>
+        <v>0.03966065995128062</v>
       </c>
       <c r="C151">
         <v>50</v>
@@ -3919,13 +4825,19 @@
         <v>0.2923976608187134</v>
       </c>
       <c r="E151">
-        <v>0.2645577029749138</v>
-      </c>
-      <c r="F151" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>0.265502421231166</v>
+      </c>
+      <c r="F151">
+        <v>31</v>
+      </c>
+      <c r="G151" t="s">
+        <v>156</v>
+      </c>
+      <c r="H151">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3939,13 +4851,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E152">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F152" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
+        <v>157</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3959,13 +4877,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E153">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F153" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>158</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3979,13 +4903,19 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F154" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154" t="s">
+        <v>159</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3999,13 +4929,19 @@
         <v>0.05847953216374269</v>
       </c>
       <c r="E155">
-        <v>0.0002253873557238839</v>
-      </c>
-      <c r="F155" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>0.0002241065959971656</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155" t="s">
+        <v>160</v>
+      </c>
+      <c r="H155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4019,13 +4955,19 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F156" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156" t="s">
+        <v>161</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4039,13 +4981,19 @@
         <v>0.02339181286549707</v>
       </c>
       <c r="E157">
-        <v>0.01341424319821438</v>
-      </c>
-      <c r="F157" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>0.01349128646361523</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+      <c r="G157" t="s">
+        <v>162</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4059,13 +5007,19 @@
         <v>0.03508771929824561</v>
       </c>
       <c r="E158">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F158" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>163</v>
+      </c>
+      <c r="H158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4079,13 +5033,19 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F159" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159" t="s">
+        <v>164</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4099,13 +5059,19 @@
         <v>0.01169590643274854</v>
       </c>
       <c r="E160">
-        <v>0.01060187973722619</v>
-      </c>
-      <c r="F160" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>0.01063695856270608</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s">
+        <v>165</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4119,13 +5085,19 @@
         <v>0.04678362573099415</v>
       </c>
       <c r="E161">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F161" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161" t="s">
+        <v>166</v>
+      </c>
+      <c r="H161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4139,13 +5111,19 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E162">
-        <v>0.001921144713637568</v>
-      </c>
-      <c r="F162" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>0.001943170777098151</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>167</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4159,13 +5137,19 @@
         <v>0.02923976608187134</v>
       </c>
       <c r="E163">
-        <v>1.581402249750071e-11</v>
-      </c>
-      <c r="F163" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>1.628531299065912e-11</v>
+      </c>
+      <c r="F163">
+        <v>3</v>
+      </c>
+      <c r="G163" t="s">
+        <v>168</v>
+      </c>
+      <c r="H163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4179,13 +5163,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E164">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F164" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>169</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4199,13 +5189,19 @@
         <v>0.03508771929824561</v>
       </c>
       <c r="E165">
-        <v>0.03026619548159247</v>
-      </c>
-      <c r="F165" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>0.02945605460357979</v>
+      </c>
+      <c r="F165">
+        <v>4</v>
+      </c>
+      <c r="G165" t="s">
+        <v>170</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4219,13 +5215,19 @@
         <v>0.02923976608187134</v>
       </c>
       <c r="E166">
-        <v>4.633014403564659e-14</v>
-      </c>
-      <c r="F166" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>4.771087790232163e-14</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166" t="s">
+        <v>171</v>
+      </c>
+      <c r="H166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4239,13 +5241,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E167">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F167" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" t="s">
+        <v>172</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4259,13 +5267,19 @@
         <v>0.02339181286549707</v>
       </c>
       <c r="E168">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F168" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168" t="s">
+        <v>173</v>
+      </c>
+      <c r="H168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4279,13 +5293,19 @@
         <v>0.04093567251461988</v>
       </c>
       <c r="E169">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F169" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169" t="s">
+        <v>174</v>
+      </c>
+      <c r="H169">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4299,18 +5319,24 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="E170">
-        <v>7.907011248750352e-12</v>
-      </c>
-      <c r="F170" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+        <v>8.142656495329558e-12</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170" t="s">
+        <v>175</v>
+      </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.001797174776329096</v>
+        <v>0.001821464043922568</v>
       </c>
       <c r="C171">
         <v>34</v>
@@ -4319,13 +5345,19 @@
         <v>0.1988304093567251</v>
       </c>
       <c r="E171">
-        <v>0.2210637138213315</v>
-      </c>
-      <c r="F171" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+        <v>0.2226961797168954</v>
+      </c>
+      <c r="F171">
+        <v>20</v>
+      </c>
+      <c r="G171" t="s">
+        <v>176</v>
+      </c>
+      <c r="H171">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4339,13 +5371,19 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E172">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F172" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172" t="s">
+        <v>177</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4359,10 +5397,16 @@
         <v>0.005847953216374269</v>
       </c>
       <c r="E173">
-        <v>3.860845336303883e-15</v>
-      </c>
-      <c r="F173" t="s">
-        <v>176</v>
+        <v>3.975906491860136e-15</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>178</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/Data/Star_Wars_Episode_VII_The_Force_Awakens/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Episode_VII_The_Force_Awakens/centrality.xlsx
@@ -67,166 +67,166 @@
     <t>Hobin Carsamba</t>
   </si>
   <si>
+    <t>C'ai Threnalli</t>
+  </si>
+  <si>
+    <t>Niv Lek</t>
+  </si>
+  <si>
+    <t>Thadlé Berenko</t>
+  </si>
+  <si>
+    <t>Gwellis Bagnoro</t>
+  </si>
+  <si>
+    <t>Bala-Tik</t>
+  </si>
+  <si>
+    <t>Cypress</t>
+  </si>
+  <si>
+    <t>Crokind Shand</t>
+  </si>
+  <si>
+    <t>Pru Sweevant</t>
+  </si>
+  <si>
+    <t>EGL-21</t>
+  </si>
+  <si>
+    <t>HURID-327</t>
+  </si>
+  <si>
+    <t>Phasma</t>
+  </si>
+  <si>
+    <t>PZ-4CO</t>
+  </si>
+  <si>
+    <t>FN-2199</t>
+  </si>
+  <si>
+    <t>Tasu Leech</t>
+  </si>
+  <si>
+    <t>Kaplan (colonel)</t>
+  </si>
+  <si>
+    <t>Vober Dand</t>
+  </si>
+  <si>
+    <t>FN-9330</t>
+  </si>
+  <si>
+    <t>Blass Tyran</t>
+  </si>
+  <si>
+    <t>Divis Scaldz</t>
+  </si>
+  <si>
+    <t>ME-8D9</t>
+  </si>
+  <si>
+    <t>Durteel Haza</t>
+  </si>
+  <si>
+    <t>Unidentified male bar patron 5</t>
+  </si>
+  <si>
+    <t>Anakin Skywalker</t>
+  </si>
+  <si>
+    <t>Zygli Bruss</t>
+  </si>
+  <si>
+    <t>Sonsigo</t>
+  </si>
+  <si>
+    <t>Anophe Dengue</t>
+  </si>
+  <si>
+    <t>Jashco Phurus</t>
+  </si>
+  <si>
+    <t>Finn</t>
+  </si>
+  <si>
+    <t>Gadde Neshurrion</t>
+  </si>
+  <si>
+    <t>Obi-Wan Kenobi</t>
+  </si>
+  <si>
+    <t>Jessika Pava</t>
+  </si>
+  <si>
+    <t>Allium</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>R2-D2</t>
+  </si>
+  <si>
+    <t>Rey</t>
+  </si>
+  <si>
+    <t>Armitage Hux</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>Guich</t>
+  </si>
+  <si>
+    <t>Bobbajo</t>
+  </si>
+  <si>
+    <t>J'Rrosch</t>
+  </si>
+  <si>
+    <t>Sarco Plank</t>
+  </si>
+  <si>
+    <t>Wollivan</t>
+  </si>
+  <si>
+    <t>Laparo</t>
+  </si>
+  <si>
+    <t>Infrablue Zedbeddy Coggins</t>
+  </si>
+  <si>
+    <t>R2-KT</t>
+  </si>
+  <si>
+    <t>Pamich Nerro Goode</t>
+  </si>
+  <si>
+    <t>O-MR1</t>
+  </si>
+  <si>
+    <t>C-3PO</t>
+  </si>
+  <si>
+    <t>Jabba Desilijic Tiure</t>
+  </si>
+  <si>
+    <t>Sache Skareet</t>
+  </si>
+  <si>
+    <t>Gannis Ducain</t>
+  </si>
+  <si>
+    <t>Chewbacca</t>
+  </si>
+  <si>
+    <t>Volzang Li-Thrull</t>
+  </si>
+  <si>
     <t>Snoke</t>
-  </si>
-  <si>
-    <t>Niv Lek</t>
-  </si>
-  <si>
-    <t>Thadlé Berenko</t>
-  </si>
-  <si>
-    <t>Gwellis Bagnoro</t>
-  </si>
-  <si>
-    <t>Bala-Tik</t>
-  </si>
-  <si>
-    <t>Cypress</t>
-  </si>
-  <si>
-    <t>Crokind Shand</t>
-  </si>
-  <si>
-    <t>Pru Sweevant</t>
-  </si>
-  <si>
-    <t>EGL-21</t>
-  </si>
-  <si>
-    <t>HURID-327</t>
-  </si>
-  <si>
-    <t>Phasma</t>
-  </si>
-  <si>
-    <t>PZ-4CO</t>
-  </si>
-  <si>
-    <t>FN-2199</t>
-  </si>
-  <si>
-    <t>Tasu Leech</t>
-  </si>
-  <si>
-    <t>Kaplan (colonel)</t>
-  </si>
-  <si>
-    <t>Vober Dand</t>
-  </si>
-  <si>
-    <t>FN-9330</t>
-  </si>
-  <si>
-    <t>Blass Tyran</t>
-  </si>
-  <si>
-    <t>Divis Scaldz</t>
-  </si>
-  <si>
-    <t>ME-8D9</t>
-  </si>
-  <si>
-    <t>Durteel Haza</t>
-  </si>
-  <si>
-    <t>Unidentified male bar patron 5</t>
-  </si>
-  <si>
-    <t>Anakin Skywalker</t>
-  </si>
-  <si>
-    <t>Zygli Bruss</t>
-  </si>
-  <si>
-    <t>Sonsigo</t>
-  </si>
-  <si>
-    <t>Anophe Dengue</t>
-  </si>
-  <si>
-    <t>Jashco Phurus</t>
-  </si>
-  <si>
-    <t>Finn</t>
-  </si>
-  <si>
-    <t>Gadde Neshurrion</t>
-  </si>
-  <si>
-    <t>Obi-Wan Kenobi</t>
-  </si>
-  <si>
-    <t>Jessika Pava</t>
-  </si>
-  <si>
-    <t>Allium</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>R2-D2</t>
-  </si>
-  <si>
-    <t>Rey</t>
-  </si>
-  <si>
-    <t>Armitage Hux</t>
-  </si>
-  <si>
-    <t>Wright</t>
-  </si>
-  <si>
-    <t>Guich</t>
-  </si>
-  <si>
-    <t>Bobbajo</t>
-  </si>
-  <si>
-    <t>J'Rrosch</t>
-  </si>
-  <si>
-    <t>Sarco Plank</t>
-  </si>
-  <si>
-    <t>Wollivan</t>
-  </si>
-  <si>
-    <t>Laparo</t>
-  </si>
-  <si>
-    <t>Infrablue Zedbeddy Coggins</t>
-  </si>
-  <si>
-    <t>R2-KT</t>
-  </si>
-  <si>
-    <t>Pamich Nerro Goode</t>
-  </si>
-  <si>
-    <t>O-MR1</t>
-  </si>
-  <si>
-    <t>C-3PO</t>
-  </si>
-  <si>
-    <t>Jabba Desilijic Tiure</t>
-  </si>
-  <si>
-    <t>Sache Skareet</t>
-  </si>
-  <si>
-    <t>Gannis Ducain</t>
-  </si>
-  <si>
-    <t>Chewbacca</t>
-  </si>
-  <si>
-    <t>Volzang Li-Thrull</t>
-  </si>
-  <si>
-    <t>C'ai Threnalli</t>
   </si>
   <si>
     <t>Resdox</t>
@@ -1202,25 +1202,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.009601457302008516</v>
+        <v>0.005467806855835752</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>0.1754385964912281</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="E12">
-        <v>0.1828570965250647</v>
+        <v>0.001521442981163848</v>
       </c>
       <c r="F12">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1774,7 +1774,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.00281786313003399</v>
+        <v>0.002817863130033989</v>
       </c>
       <c r="C34">
         <v>34</v>
@@ -2580,25 +2580,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.005467806855835752</v>
+        <v>0.009601457302008516</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D65">
-        <v>0.05847953216374269</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="E65">
-        <v>0.001521442981163848</v>
+        <v>0.1828570965250647</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s">
         <v>70</v>
       </c>
       <c r="H65">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:8">
